--- a/Code/Results/Cases/Case_9_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_9/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007852860258039</v>
+        <v>1.007396818615099</v>
       </c>
       <c r="D2">
-        <v>1.030172025830328</v>
+        <v>1.029179728646574</v>
       </c>
       <c r="E2">
-        <v>1.023395409045838</v>
+        <v>1.022949260548039</v>
       </c>
       <c r="F2">
-        <v>1.03473777892144</v>
+        <v>1.034142878486352</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047141608816995</v>
+        <v>1.046746406474958</v>
       </c>
       <c r="J2">
-        <v>1.029801203965993</v>
+        <v>1.029358520705594</v>
       </c>
       <c r="K2">
-        <v>1.041226429992936</v>
+        <v>1.040246977455037</v>
       </c>
       <c r="L2">
-        <v>1.034538153574291</v>
+        <v>1.034097872575253</v>
       </c>
       <c r="M2">
-        <v>1.04573347911747</v>
+        <v>1.045146190878469</v>
       </c>
       <c r="N2">
-        <v>1.013730131932895</v>
+        <v>1.014907351729675</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.044767359135908</v>
+        <v>1.044302562454137</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040220938496959</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039537139239884</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022732713509398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01135508882469</v>
+        <v>1.010772350692521</v>
       </c>
       <c r="D3">
-        <v>1.032523253785726</v>
+        <v>1.031368956483237</v>
       </c>
       <c r="E3">
-        <v>1.026086080164485</v>
+        <v>1.025526332959556</v>
       </c>
       <c r="F3">
-        <v>1.03731653779533</v>
+        <v>1.036605294230136</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047683298895957</v>
+        <v>1.047218825986022</v>
       </c>
       <c r="J3">
-        <v>1.031540917351857</v>
+        <v>1.030973597024198</v>
       </c>
       <c r="K3">
-        <v>1.042756241343777</v>
+        <v>1.041615601817107</v>
       </c>
       <c r="L3">
-        <v>1.036395719544114</v>
+        <v>1.035842694056184</v>
       </c>
       <c r="M3">
-        <v>1.047493212960098</v>
+        <v>1.046790284506759</v>
       </c>
       <c r="N3">
-        <v>1.014325481269105</v>
+        <v>1.015346333559805</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046160060981494</v>
+        <v>1.045603744354028</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041299983981726</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040501936341013</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023001445524831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013585485022078</v>
+        <v>1.012922929680516</v>
       </c>
       <c r="D4">
-        <v>1.034023715754335</v>
+        <v>1.032766822681745</v>
       </c>
       <c r="E4">
-        <v>1.02780557183675</v>
+        <v>1.027174142017395</v>
       </c>
       <c r="F4">
-        <v>1.038964950683711</v>
+        <v>1.038180175522132</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048018696748915</v>
+        <v>1.047510308936288</v>
       </c>
       <c r="J4">
-        <v>1.032647943256949</v>
+        <v>1.032001744377133</v>
       </c>
       <c r="K4">
-        <v>1.043728139762937</v>
+        <v>1.042485233293494</v>
       </c>
       <c r="L4">
-        <v>1.037579602289586</v>
+        <v>1.036955298825761</v>
       </c>
       <c r="M4">
-        <v>1.04861479204777</v>
+        <v>1.047838643147936</v>
       </c>
       <c r="N4">
-        <v>1.01470416930641</v>
+        <v>1.015625725829288</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04704770819582</v>
+        <v>1.046433443639179</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041988089325921</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041117812943477</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023169899501313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014517723312249</v>
+        <v>1.013821998308019</v>
       </c>
       <c r="D5">
-        <v>1.034653492909074</v>
+        <v>1.033353898753888</v>
       </c>
       <c r="E5">
-        <v>1.028526122929588</v>
+        <v>1.027864882737283</v>
       </c>
       <c r="F5">
-        <v>1.039655963548826</v>
+        <v>1.038840597446351</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048157909468149</v>
+        <v>1.04763122421904</v>
       </c>
       <c r="J5">
-        <v>1.033111800502089</v>
+        <v>1.0324327430814</v>
       </c>
       <c r="K5">
-        <v>1.044136344699944</v>
+        <v>1.042850832161667</v>
       </c>
       <c r="L5">
-        <v>1.038075749935105</v>
+        <v>1.037421774309985</v>
       </c>
       <c r="M5">
-        <v>1.049085014066635</v>
+        <v>1.048278373878373</v>
       </c>
       <c r="N5">
-        <v>1.014863073682817</v>
+        <v>1.015743040579156</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04741985396186</v>
+        <v>1.046781458112945</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042283871418181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04138417963242</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023240598922119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014677310780901</v>
+        <v>1.013975908639705</v>
       </c>
       <c r="D6">
-        <v>1.034763683090592</v>
+        <v>1.033456842845129</v>
       </c>
       <c r="E6">
-        <v>1.028650112013537</v>
+        <v>1.027983772608684</v>
       </c>
       <c r="F6">
-        <v>1.03977505236088</v>
+        <v>1.038954471835857</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048183260516036</v>
+        <v>1.047653457901401</v>
       </c>
       <c r="J6">
-        <v>1.033192888675462</v>
+        <v>1.032508204623222</v>
       </c>
       <c r="K6">
-        <v>1.044209320148611</v>
+        <v>1.042916575966212</v>
       </c>
       <c r="L6">
-        <v>1.038162070564324</v>
+        <v>1.03750301830545</v>
       </c>
       <c r="M6">
-        <v>1.049167037079656</v>
+        <v>1.04835519840109</v>
       </c>
       <c r="N6">
-        <v>1.014891175446432</v>
+        <v>1.015763834726649</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047484769058902</v>
+        <v>1.046842259045384</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042344188286447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041440251230404</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023253814015837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013607508049296</v>
+        <v>1.012951401649706</v>
       </c>
       <c r="D7">
-        <v>1.034044849291633</v>
+        <v>1.032792314812294</v>
       </c>
       <c r="E7">
-        <v>1.027824092366161</v>
+        <v>1.02719805272944</v>
       </c>
       <c r="F7">
-        <v>1.038983170924143</v>
+        <v>1.038202743652177</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048026444224591</v>
+        <v>1.047520024785149</v>
       </c>
       <c r="J7">
-        <v>1.032663457310803</v>
+        <v>1.03202354117384</v>
       </c>
       <c r="K7">
-        <v>1.04374616894554</v>
+        <v>1.042507567150683</v>
       </c>
       <c r="L7">
-        <v>1.037595021206062</v>
+        <v>1.036976044374087</v>
       </c>
       <c r="M7">
-        <v>1.048629960817797</v>
+        <v>1.047858108747917</v>
       </c>
       <c r="N7">
-        <v>1.014710371314423</v>
+        <v>1.015658193312213</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047059713152398</v>
+        <v>1.046448849230815</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042020888552282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041155653031114</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023176233087424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009055956819132</v>
+        <v>1.008578533586591</v>
       </c>
       <c r="D8">
-        <v>1.030986787408424</v>
+        <v>1.029955059776334</v>
       </c>
       <c r="E8">
-        <v>1.024320393556732</v>
+        <v>1.023853911581316</v>
       </c>
       <c r="F8">
-        <v>1.035624708012276</v>
+        <v>1.035005316567206</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047335142056927</v>
+        <v>1.046923490576814</v>
       </c>
       <c r="J8">
-        <v>1.030404687108142</v>
+        <v>1.029940783970057</v>
       </c>
       <c r="K8">
-        <v>1.04176276496982</v>
+        <v>1.040744000461601</v>
       </c>
       <c r="L8">
-        <v>1.035180706441271</v>
+        <v>1.034720177208031</v>
       </c>
       <c r="M8">
-        <v>1.046342809864775</v>
+        <v>1.045731110302621</v>
       </c>
       <c r="N8">
-        <v>1.013937844818734</v>
+        <v>1.015145109806859</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045249600576214</v>
+        <v>1.044765484388765</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04062301973387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039913688762505</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022834306723538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000735083616247</v>
+        <v>1.000567495684406</v>
       </c>
       <c r="D9">
-        <v>1.025412452935102</v>
+        <v>1.024771502479939</v>
       </c>
       <c r="E9">
-        <v>1.017961043754628</v>
+        <v>1.017771393580273</v>
       </c>
       <c r="F9">
-        <v>1.029532007086407</v>
+        <v>1.029194851275497</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045990236919855</v>
+        <v>1.045745527299258</v>
       </c>
       <c r="J9">
-        <v>1.026261910863244</v>
+        <v>1.026100230119549</v>
       </c>
       <c r="K9">
-        <v>1.038106259563943</v>
+        <v>1.037475069062455</v>
       </c>
       <c r="L9">
-        <v>1.030769285016896</v>
+        <v>1.030582575319796</v>
       </c>
       <c r="M9">
-        <v>1.042163453315606</v>
+        <v>1.041831377368578</v>
       </c>
       <c r="N9">
-        <v>1.012518383099557</v>
+        <v>1.014109701559937</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041941934204159</v>
+        <v>1.04167911883383</v>
       </c>
       <c r="Q9">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R9">
-        <v>1.038034471006985</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03759890111642</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022178286265706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9950364107356243</v>
+        <v>0.9951162107739974</v>
       </c>
       <c r="D10">
-        <v>1.021634820466383</v>
+        <v>1.021285728966242</v>
       </c>
       <c r="E10">
-        <v>1.013664111302266</v>
+        <v>1.013692834689847</v>
       </c>
       <c r="F10">
-        <v>1.025451089149961</v>
+        <v>1.025331050632221</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045038435566732</v>
+        <v>1.044918491678404</v>
       </c>
       <c r="J10">
-        <v>1.023448355164101</v>
+        <v>1.023524944499532</v>
       </c>
       <c r="K10">
-        <v>1.035624138006495</v>
+        <v>1.035281011948107</v>
       </c>
       <c r="L10">
-        <v>1.027790962163334</v>
+        <v>1.02781918490565</v>
       </c>
       <c r="M10">
-        <v>1.039375534302897</v>
+        <v>1.039257526816044</v>
       </c>
       <c r="N10">
-        <v>1.011558207837508</v>
+        <v>1.013529154372356</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03978684110378</v>
+        <v>1.03969345179598</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036296248456009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036066035778422</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021734036668034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9929618082286706</v>
+        <v>0.9931600644556312</v>
       </c>
       <c r="D11">
-        <v>1.020416924412912</v>
+        <v>1.020186969864899</v>
       </c>
       <c r="E11">
-        <v>1.012296684721079</v>
+        <v>1.012426096729556</v>
       </c>
       <c r="F11">
-        <v>1.024417450911136</v>
+        <v>1.024392879433055</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044810680566609</v>
+        <v>1.04473971473819</v>
       </c>
       <c r="J11">
-        <v>1.02263034400712</v>
+        <v>1.022820187377492</v>
       </c>
       <c r="K11">
-        <v>1.034963812186225</v>
+        <v>1.034737973008049</v>
       </c>
       <c r="L11">
-        <v>1.026990370550851</v>
+        <v>1.027117419005747</v>
       </c>
       <c r="M11">
-        <v>1.038893127000543</v>
+        <v>1.038868990706804</v>
       </c>
       <c r="N11">
-        <v>1.011315413585461</v>
+        <v>1.013592870532581</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039840594168732</v>
+        <v>1.039821502652002</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03586217567145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035718101006987</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02166537127045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9923479090864321</v>
+        <v>0.9925776354167807</v>
       </c>
       <c r="D12">
-        <v>1.020121717974825</v>
+        <v>1.01992047258817</v>
       </c>
       <c r="E12">
-        <v>1.011976723574144</v>
+        <v>1.012131398112663</v>
       </c>
       <c r="F12">
-        <v>1.02430832913327</v>
+        <v>1.024307781289768</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044797307164628</v>
+        <v>1.044736516970703</v>
       </c>
       <c r="J12">
-        <v>1.022479687310435</v>
+        <v>1.022699479113727</v>
       </c>
       <c r="K12">
-        <v>1.034873310889419</v>
+        <v>1.034675726628936</v>
       </c>
       <c r="L12">
-        <v>1.026878010172252</v>
+        <v>1.027029812738056</v>
       </c>
       <c r="M12">
-        <v>1.038984181765861</v>
+        <v>1.038983643780797</v>
       </c>
       <c r="N12">
-        <v>1.011293288830507</v>
+        <v>1.01368259219058</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040238513108131</v>
+        <v>1.040238087712052</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035798188473928</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035674091807561</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021682506962372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9928299485765361</v>
+        <v>0.993015096284117</v>
       </c>
       <c r="D13">
-        <v>1.020533376048371</v>
+        <v>1.020284601555944</v>
       </c>
       <c r="E13">
-        <v>1.012453875364131</v>
+        <v>1.012568150348131</v>
       </c>
       <c r="F13">
-        <v>1.024923080982494</v>
+        <v>1.024885286133973</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04496012521595</v>
+        <v>1.044876630736047</v>
       </c>
       <c r="J13">
-        <v>1.022847144905983</v>
+        <v>1.023024325778764</v>
       </c>
       <c r="K13">
-        <v>1.035234735647617</v>
+        <v>1.03499046736605</v>
       </c>
       <c r="L13">
-        <v>1.02730305970926</v>
+        <v>1.027415222447189</v>
       </c>
       <c r="M13">
-        <v>1.0395453944518</v>
+        <v>1.03950827642769</v>
       </c>
       <c r="N13">
-        <v>1.011445631604894</v>
+        <v>1.013766703154174</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040958523684736</v>
+        <v>1.040929181041296</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.036051237607017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035893887186855</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021771291133261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9936651884958775</v>
+        <v>0.9937853141343111</v>
       </c>
       <c r="D14">
-        <v>1.021143641019498</v>
+        <v>1.020827617486935</v>
       </c>
       <c r="E14">
-        <v>1.013149800182891</v>
+        <v>1.013206718321057</v>
       </c>
       <c r="F14">
-        <v>1.025682371563647</v>
+        <v>1.025591292160927</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045154417875284</v>
+        <v>1.045040529321044</v>
       </c>
       <c r="J14">
-        <v>1.023339932940222</v>
+        <v>1.023454963557483</v>
       </c>
       <c r="K14">
-        <v>1.035694000015527</v>
+        <v>1.03538362971706</v>
       </c>
       <c r="L14">
-        <v>1.027844568801987</v>
+        <v>1.027900448223217</v>
       </c>
       <c r="M14">
-        <v>1.040152037203093</v>
+        <v>1.040062567978736</v>
       </c>
       <c r="N14">
-        <v>1.011631718703098</v>
+        <v>1.01382462356376</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041611145493489</v>
+        <v>1.041540427562567</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.036377374341537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03617342052379</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021866552232524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9941116431556422</v>
+        <v>0.994199909764356</v>
       </c>
       <c r="D15">
-        <v>1.021453094376509</v>
+        <v>1.02110438966448</v>
       </c>
       <c r="E15">
-        <v>1.013499902105412</v>
+        <v>1.013529038670385</v>
       </c>
       <c r="F15">
-        <v>1.026036785990545</v>
+        <v>1.025919741733964</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045243305358548</v>
+        <v>1.045115044963006</v>
       </c>
       <c r="J15">
-        <v>1.023578867685848</v>
+        <v>1.023663423146122</v>
       </c>
       <c r="K15">
-        <v>1.035911722408453</v>
+        <v>1.035569208378875</v>
       </c>
       <c r="L15">
-        <v>1.02810110388168</v>
+        <v>1.028129712816106</v>
       </c>
       <c r="M15">
-        <v>1.040414544964441</v>
+        <v>1.040299554043761</v>
       </c>
       <c r="N15">
-        <v>1.011717391729853</v>
+        <v>1.013842254225909</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041856118159014</v>
+        <v>1.041765229852567</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036537172641698</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036311060060104</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021907750312347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9964297755031108</v>
+        <v>0.9963729248080022</v>
       </c>
       <c r="D16">
-        <v>1.022976978794844</v>
+        <v>1.022477864217556</v>
       </c>
       <c r="E16">
-        <v>1.015228560757129</v>
+        <v>1.015132270840188</v>
       </c>
       <c r="F16">
-        <v>1.027668476066962</v>
+        <v>1.027432670591333</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045630668608484</v>
+        <v>1.045438224664367</v>
       </c>
       <c r="J16">
-        <v>1.024708522161764</v>
+        <v>1.024653942900638</v>
       </c>
       <c r="K16">
-        <v>1.036907912637072</v>
+        <v>1.036417275062507</v>
       </c>
       <c r="L16">
-        <v>1.029292310120563</v>
+        <v>1.029197687210077</v>
       </c>
       <c r="M16">
-        <v>1.04152024796879</v>
+        <v>1.041288399108853</v>
       </c>
       <c r="N16">
-        <v>1.012097875672986</v>
+        <v>1.01390029231131</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042691401807788</v>
+        <v>1.042508144300124</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037244674279248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036914131098811</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022075452195191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9977724128098078</v>
+        <v>0.9976465760871532</v>
       </c>
       <c r="D17">
-        <v>1.023827517390826</v>
+        <v>1.023254307116898</v>
       </c>
       <c r="E17">
-        <v>1.016191559650394</v>
+        <v>1.016035885143191</v>
       </c>
       <c r="F17">
-        <v>1.028519668338348</v>
+        <v>1.028226369413807</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04582347174452</v>
+        <v>1.045600238491865</v>
       </c>
       <c r="J17">
-        <v>1.025316463872535</v>
+        <v>1.025195494283711</v>
       </c>
       <c r="K17">
-        <v>1.03743027570877</v>
+        <v>1.036866529748147</v>
       </c>
       <c r="L17">
-        <v>1.029921525723364</v>
+        <v>1.029768470251492</v>
       </c>
       <c r="M17">
-        <v>1.042045463876823</v>
+        <v>1.041756949325362</v>
       </c>
       <c r="N17">
-        <v>1.012292004458045</v>
+        <v>1.013943389848057</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042977707853562</v>
+        <v>1.04274963810219</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037616587297018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037234600762287</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022154858540413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9983906632553237</v>
+        <v>0.9982452508435373</v>
       </c>
       <c r="D18">
-        <v>1.02415848008224</v>
+        <v>1.02356325402197</v>
       </c>
       <c r="E18">
-        <v>1.01656391169677</v>
+        <v>1.01639212401059</v>
       </c>
       <c r="F18">
-        <v>1.028741838953027</v>
+        <v>1.028431826508971</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045859647010679</v>
+        <v>1.045628552489962</v>
       </c>
       <c r="J18">
-        <v>1.025514607566563</v>
+        <v>1.025374714790586</v>
       </c>
       <c r="K18">
-        <v>1.03757284121807</v>
+        <v>1.036987283611873</v>
       </c>
       <c r="L18">
-        <v>1.030102727104987</v>
+        <v>1.029933782237789</v>
       </c>
       <c r="M18">
-        <v>1.042082231761234</v>
+        <v>1.041777195772514</v>
       </c>
       <c r="N18">
-        <v>1.01233679490503</v>
+        <v>1.013934653126731</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042769498092524</v>
+        <v>1.042528318084752</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037705770669562</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037307228705591</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022157694661249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9983679675094242</v>
+        <v>0.9982406636981463</v>
       </c>
       <c r="D19">
-        <v>1.024039368922294</v>
+        <v>1.023463992631994</v>
       </c>
       <c r="E19">
-        <v>1.016413317104635</v>
+        <v>1.016258654344935</v>
       </c>
       <c r="F19">
-        <v>1.028405474955017</v>
+        <v>1.028110733712568</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045765989757769</v>
+        <v>1.045545328157292</v>
       </c>
       <c r="J19">
-        <v>1.025357784437865</v>
+        <v>1.025235284798674</v>
       </c>
       <c r="K19">
-        <v>1.037393273566235</v>
+        <v>1.03682719601478</v>
       </c>
       <c r="L19">
-        <v>1.029891567167342</v>
+        <v>1.029739451074766</v>
       </c>
       <c r="M19">
-        <v>1.041689252977648</v>
+        <v>1.041399221714933</v>
       </c>
       <c r="N19">
-        <v>1.012255577961264</v>
+        <v>1.013865552269273</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042133899373134</v>
+        <v>1.041904508333557</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037585194872114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037201050808327</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02209720832354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.996537147569693</v>
+        <v>0.9965306790198788</v>
       </c>
       <c r="D20">
-        <v>1.022644362117332</v>
+        <v>1.022203302902041</v>
       </c>
       <c r="E20">
-        <v>1.01479851045833</v>
+        <v>1.014751881279213</v>
       </c>
       <c r="F20">
-        <v>1.026530874147854</v>
+        <v>1.026338965681573</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045304014938668</v>
+        <v>1.045144147126132</v>
       </c>
       <c r="J20">
-        <v>1.024202212103188</v>
+        <v>1.024195995363054</v>
       </c>
       <c r="K20">
-        <v>1.036300390691067</v>
+        <v>1.035866655091309</v>
       </c>
       <c r="L20">
-        <v>1.028586043035139</v>
+        <v>1.02854020325028</v>
       </c>
       <c r="M20">
-        <v>1.040122718614701</v>
+        <v>1.039933964761955</v>
       </c>
       <c r="N20">
-        <v>1.011818356254246</v>
+        <v>1.013614712776643</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040367625322403</v>
+        <v>1.040218246637739</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036816402549175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036526220926905</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02185559479203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,105 +1617,123 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9921824398761584</v>
+        <v>0.992471038200273</v>
       </c>
       <c r="D21">
-        <v>1.019733810815898</v>
+        <v>1.01959529602025</v>
       </c>
       <c r="E21">
-        <v>1.011490751459976</v>
+        <v>1.011701197948184</v>
       </c>
       <c r="F21">
-        <v>1.023338592754236</v>
+        <v>1.02338775993225</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044534602673353</v>
+        <v>1.044506933310338</v>
       </c>
       <c r="J21">
-        <v>1.022010685686063</v>
+        <v>1.022286950094949</v>
       </c>
       <c r="K21">
-        <v>1.034350722578467</v>
+        <v>1.034214702091276</v>
       </c>
       <c r="L21">
-        <v>1.026257649824663</v>
+        <v>1.026464227526885</v>
       </c>
       <c r="M21">
-        <v>1.037890899595654</v>
+        <v>1.037939189683831</v>
       </c>
       <c r="N21">
-        <v>1.011063499652529</v>
+        <v>1.013510520765778</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038560493225442</v>
+        <v>1.038598711694659</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.035441141039699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035361785257987</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021517120014026</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.050000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.989412326712045</v>
+        <v>0.9898877295260139</v>
       </c>
       <c r="D22">
-        <v>1.017890449848295</v>
+        <v>1.017943818165613</v>
       </c>
       <c r="E22">
-        <v>1.009404603307986</v>
+        <v>1.009777885698132</v>
       </c>
       <c r="F22">
-        <v>1.021342271626122</v>
+        <v>1.021544330259653</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044039209539975</v>
+        <v>1.044095534019202</v>
       </c>
       <c r="J22">
-        <v>1.020624361342878</v>
+        <v>1.021078267309077</v>
       </c>
       <c r="K22">
-        <v>1.033115633892233</v>
+        <v>1.033167993052663</v>
       </c>
       <c r="L22">
-        <v>1.024792027381321</v>
+        <v>1.025158097903927</v>
       </c>
       <c r="M22">
-        <v>1.036502467746029</v>
+        <v>1.036700739958653</v>
       </c>
       <c r="N22">
-        <v>1.010586792517318</v>
+        <v>1.013438964796143</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037461638696202</v>
+        <v>1.037618558506596</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034554385997973</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034606925844905</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021301549622116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9908764768485898</v>
+        <v>0.9912410731009055</v>
       </c>
       <c r="D23">
-        <v>1.018858788236989</v>
+        <v>1.01880152302897</v>
       </c>
       <c r="E23">
-        <v>1.010504882673244</v>
+        <v>1.010781790381112</v>
       </c>
       <c r="F23">
-        <v>1.022394886313525</v>
+        <v>1.022507496483103</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044298107269772</v>
+        <v>1.044305817859291</v>
       </c>
       <c r="J23">
-        <v>1.02135295804688</v>
+        <v>1.021701549857588</v>
       </c>
       <c r="K23">
-        <v>1.033761301297174</v>
+        <v>1.033705091488592</v>
       </c>
       <c r="L23">
-        <v>1.025563009846296</v>
+        <v>1.02583470555708</v>
       </c>
       <c r="M23">
-        <v>1.037232527156345</v>
+        <v>1.037343081009172</v>
       </c>
       <c r="N23">
-        <v>1.010836348905957</v>
+        <v>1.013431765677805</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03803943398551</v>
+        <v>1.03812693024227</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035001271368149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034976106163211</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021410141424385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9965524225289087</v>
+        <v>0.9965470584893878</v>
       </c>
       <c r="D24">
-        <v>1.022631668571109</v>
+        <v>1.022191692772402</v>
       </c>
       <c r="E24">
-        <v>1.014789317871375</v>
+        <v>1.014743837822291</v>
       </c>
       <c r="F24">
-        <v>1.026495468634586</v>
+        <v>1.026304485283294</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045288604289079</v>
+        <v>1.045129522479605</v>
       </c>
       <c r="J24">
-        <v>1.024183833065474</v>
+        <v>1.024178677535993</v>
       </c>
       <c r="K24">
-        <v>1.036272670912696</v>
+        <v>1.035839991604477</v>
       </c>
       <c r="L24">
-        <v>1.028561600603459</v>
+        <v>1.028516889523143</v>
       </c>
       <c r="M24">
-        <v>1.040072739792346</v>
+        <v>1.039884892104999</v>
       </c>
       <c r="N24">
-        <v>1.011807407600972</v>
+        <v>1.013602624700217</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040287276037125</v>
+        <v>1.040138607128173</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036769432967987</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036477328466248</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021844528061763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002937002291139</v>
+        <v>1.002677454917495</v>
       </c>
       <c r="D25">
-        <v>1.02689387193477</v>
+        <v>1.026142598095509</v>
       </c>
       <c r="E25">
-        <v>1.019640536237273</v>
+        <v>1.019369313816109</v>
       </c>
       <c r="F25">
-        <v>1.031141153447226</v>
+        <v>1.030722490916595</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046361402155332</v>
+        <v>1.046069336996039</v>
       </c>
       <c r="J25">
-        <v>1.027365927255803</v>
+        <v>1.027115046781014</v>
       </c>
       <c r="K25">
-        <v>1.039088562605852</v>
+        <v>1.038348199610096</v>
       </c>
       <c r="L25">
-        <v>1.031941421340972</v>
+        <v>1.031674207065341</v>
       </c>
       <c r="M25">
-        <v>1.043274538999069</v>
+        <v>1.042861891000772</v>
       </c>
       <c r="N25">
-        <v>1.012898333225106</v>
+        <v>1.014354140367181</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042821281738984</v>
+        <v>1.042494699489489</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038757549189412</v>
+        <v>1.038247588404744</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022357084396663</v>
       </c>
     </row>
   </sheetData>
